--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2311934.678690666</v>
+        <v>2309682.598979459</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9507242.414851869</v>
+        <v>9507242.41485187</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.1842403900288</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>286.8517409876637</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -874,10 +874,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>210.1089145855743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>49.68400593664519</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>285.0189589184514</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>36.95558184798536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>16.07276553345863</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,10 +1108,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>72.89839816356374</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>219.2767559860922</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>97.18111948505729</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>4.04318711639923</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>214.4381565326525</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417088</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703249</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182095</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>32.81060261324118</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703258</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>213.3849150459361</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>166.8663745188113</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881296</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.87284639171752</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2005.586939522201</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1636.624422581789</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D2" t="n">
-        <v>1278.358723975039</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F2" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883007</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,7 +4422,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4431,28 +4431,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4492,19 +4492,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4513,25 +4513,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>922.6774975139006</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>922.6774975139006</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="X4" t="n">
-        <v>922.6774975139006</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.6774975139006</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495403</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495403</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>769.482504888653</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>769.482504888653</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559525</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4647,7 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>567.2993462682277</v>
+        <v>551.0642295677644</v>
       </c>
       <c r="C7" t="n">
-        <v>398.3631633403209</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D7" t="n">
-        <v>398.3631633403209</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E7" t="n">
-        <v>250.4500697579277</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1061.273978748255</v>
       </c>
       <c r="W7" t="n">
-        <v>969.7403902419976</v>
+        <v>771.8568087112945</v>
       </c>
       <c r="X7" t="n">
-        <v>969.7403902419976</v>
+        <v>771.8568087112945</v>
       </c>
       <c r="Y7" t="n">
-        <v>748.9478110984675</v>
+        <v>551.0642295677644</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.114148895947</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2773.051261552376</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2420.282606282261</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1923.210520698191</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1634.107653823834</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1379.423165617947</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1090.005995580987</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>862.0164446829692</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192579</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797182</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703803</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969318</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400694</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121625</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121625</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121625</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121625</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5282,46 +5282,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245718</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403302</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656131</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377062</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279801</v>
@@ -5455,10 +5455,10 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487566</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1400.55934280716</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.569791909143</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>951.7772127656131</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962605</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143763</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121634</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121634</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5774,28 +5774,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797183</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797183</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745235</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338367</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,34 +5887,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797183</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
         <v>402.7245934908939</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,64 +6449,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>782.8410298377092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377092</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253735</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2211.365486379318</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1991.764021402259</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1702.688794746457</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1702.688794746457</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1413.271624709496</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.489494667949</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-9.632336146077086e-14</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194397</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>253.7123957233498</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194309</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>5.19973830615865</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>14.15991148283331</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>832630.7051995175</v>
+        <v>832630.7051995177</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818735.5350252402</v>
+        <v>818735.5350252403</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818735.5350252403</v>
+        <v>818735.5350252402</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>615781.3273982125</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>605359.9497675039</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26366,28 +26366,28 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316951</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316945</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316944</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181825</v>
+        <v>12386.92018181812</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181827</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.9201818182</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181822</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
+        <v>12386.92018181819</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>12386.92018181814</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12386.92018181808</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-912471.3138439426</v>
+        <v>-912471.3138439425</v>
       </c>
       <c r="C6" t="n">
         <v>416273.4318836492</v>
@@ -26528,40 +26528,40 @@
         <v>416273.4318836498</v>
       </c>
       <c r="E6" t="n">
-        <v>166438.0379544244</v>
+        <v>166403.300028988</v>
       </c>
       <c r="F6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363439</v>
       </c>
       <c r="G6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="H6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363429</v>
       </c>
       <c r="I6" t="n">
-        <v>491850.4997617791</v>
+        <v>491815.7618363435</v>
       </c>
       <c r="J6" t="n">
-        <v>274319.2973645015</v>
+        <v>274284.5594390657</v>
       </c>
       <c r="K6" t="n">
-        <v>491850.499761779</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="L6" t="n">
-        <v>491850.4997617787</v>
+        <v>491815.7618363434</v>
       </c>
       <c r="M6" t="n">
-        <v>406795.4718262675</v>
+        <v>406760.7339008315</v>
       </c>
       <c r="N6" t="n">
-        <v>491850.4997617792</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="O6" t="n">
-        <v>491850.4997617789</v>
+        <v>491815.7618363433</v>
       </c>
       <c r="P6" t="n">
-        <v>491850.4997617793</v>
+        <v>491815.7618363431</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26744,13 +26744,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,22 +26960,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.746129682233</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>82.8793596908053</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02872873825373</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>236.8389923999458</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>121.85708682326</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2823568080682</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>129.3482824894726</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>179.2392451602643</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>31.71841597280974</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>272.5499811934117</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>215.50576215977</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>4.146496819442291</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.887874563307766e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.612320518632519e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2.839810587742942e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-9.890421814873207e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338222</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214695</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305205</v>
+        <v>295.3955842839429</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.410447117911</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32950,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O33" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>279.0775374915855</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L12" t="n">
-        <v>25.730943153948</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071393</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625073</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561616</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394708</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O33" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>136.4812930471411</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
